--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikeiy\source\repos\VRSJ2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9BFC7C-E155-4BC3-8499-EABE90181CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7768D25B-A935-4D88-AF43-C60663F45C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -220,25 +220,6 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>標準偏差</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="BIZ UDゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>ルート</t>
     </r>
     <phoneticPr fontId="1"/>
@@ -262,12 +243,122 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>平方偏差</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平方偏差</t>
+    <rPh sb="0" eb="4">
+      <t>ヘイホウヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上昇感覚</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も上昇感覚が高い条件</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ジョウショウカンカク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散分析: 繰り返しのない二元配置</t>
+  </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>データの個数</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>分散</t>
+  </si>
+  <si>
+    <t>分散分析表</t>
+  </si>
+  <si>
+    <t>変動要因</t>
+  </si>
+  <si>
+    <t>変動</t>
+  </si>
+  <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t>観測された分散比</t>
+  </si>
+  <si>
+    <t>P-値</t>
+  </si>
+  <si>
+    <t>F 境界値</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
+    <t>誤差</t>
+  </si>
+  <si>
+    <t>分散分析: 一元配置</t>
+  </si>
+  <si>
+    <t>グループ</t>
+  </si>
+  <si>
+    <t>グループ間</t>
+  </si>
+  <si>
+    <t>グループ内</t>
+  </si>
+  <si>
+    <t>標準偏差</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,16 +386,36 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -312,13 +423,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -381,13 +621,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>10.981044273352756</c:v>
+                    <c:v>3.9370039370059056</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.226327677997501</c:v>
+                    <c:v>12.511594622589078</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.8101231837447607</c:v>
+                    <c:v>8.3006023877788522</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -399,13 +639,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>10.981044273352756</c:v>
+                    <c:v>3.9370039370059056</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.226327677997501</c:v>
+                    <c:v>12.511594622589078</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.8101231837447607</c:v>
+                    <c:v>8.3006023877788522</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -445,13 +685,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.666666666666664</c:v>
+                  <c:v>63.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.666666666666671</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,15 +1416,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>491671</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>125185</xdr:rowOff>
+      <xdr:colOff>491673</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>263070</xdr:colOff>
+      <xdr:colOff>552827</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>129379</xdr:rowOff>
+      <xdr:rowOff>173641</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1199,10 +1439,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8216900" y="4547960"/>
-          <a:ext cx="2514599" cy="1895133"/>
-          <a:chOff x="8468179" y="4705380"/>
-          <a:chExt cx="2511424" cy="1897499"/>
+          <a:off x="9307332" y="3889475"/>
+          <a:ext cx="2799397" cy="2956312"/>
+          <a:chOff x="8468179" y="4062477"/>
+          <a:chExt cx="2795169" cy="2573156"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -1241,7 +1481,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8741615" y="5784662"/>
+            <a:off x="8745202" y="6066888"/>
             <a:ext cx="914400" cy="568745"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1291,18 +1531,18 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="5" idx="0"/>
+            <a:stCxn id="29" idx="0"/>
             <a:endCxn id="8" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="5400000" flipH="1" flipV="1">
-            <a:off x="9521203" y="4788478"/>
-            <a:ext cx="673796" cy="1318571"/>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="9810152" y="4393827"/>
+            <a:ext cx="98677" cy="1300866"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
-              <a:gd name="adj1" fmla="val 123165"/>
+              <a:gd name="adj1" fmla="val -196176"/>
             </a:avLst>
           </a:prstGeom>
           <a:ln w="19050">
@@ -1339,7 +1579,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10060186" y="5110865"/>
+            <a:off x="10052723" y="5093599"/>
             <a:ext cx="914400" cy="570471"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1388,7 +1628,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9393781" y="4705380"/>
+            <a:off x="10236916" y="4237337"/>
             <a:ext cx="1026432" cy="275771"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1422,12 +1662,269 @@
                 <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
                 <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
               </a:rPr>
-              <a:t>*p &lt; 0.05</a:t>
+              <a:t>**p &lt; 0.01</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="テキスト ボックス 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2180600-45CF-0DB0-018A-831F0F9AD04D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10212765" y="4062477"/>
+            <a:ext cx="1026432" cy="275771"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              </a:rPr>
+              <a:t>**p &lt; 0.01</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="テキスト ボックス 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCF08E2-C9AE-DEF7-AA29-27E1B067DFE2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9727965" y="4464735"/>
+            <a:ext cx="401929" cy="275771"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              </a:rPr>
+              <a:t>**</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAC737C-8896-F1D4-22C6-56DDAE775F45}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9394558" y="5218159"/>
+            <a:ext cx="914400" cy="570471"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC895F1A-98B2-BB3B-2B5C-BDB9CDD36A18}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="0"/>
+            <a:endCxn id="22" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="9102716" y="5317846"/>
+            <a:ext cx="848729" cy="649356"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 123444"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BB6D09-8178-43DE-C704-74DB50D32996}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8751857" y="4994922"/>
+            <a:ext cx="914400" cy="570471"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1700,279 +2197,887 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="19.5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>24</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>16</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>53</v>
       </c>
       <c r="E2" s="1">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
         <f>(B2-B$16)^2</f>
-        <v>6.25</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:G2" si="0">(C2-C$16)^2</f>
-        <v>2272.1111111111109</v>
-      </c>
-      <c r="G2" s="1">
-        <f t="shared" si="0"/>
-        <v>560.11111111111131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="1">
+        <f>(C2-C$16)^2</f>
+        <v>2227.84</v>
+      </c>
+      <c r="I2" s="1">
+        <f>(D2-D$16)^2</f>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>82</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>90</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E7" si="1">(B3-B$16)^2</f>
-        <v>72.25</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F7" si="2">(C3-C$16)^2</f>
-        <v>336.1111111111112</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G7" si="3">(D3-D$16)^2</f>
-        <v>177.77777777777766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+        <f>(B3-B$16)^2</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <f>(C3-C$16)^2</f>
+        <v>353.43999999999988</v>
+      </c>
+      <c r="I3" s="1">
+        <f>(D3-D$16)^2</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>80</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>98</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>110.25</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="2"/>
-        <v>266.77777777777783</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="3"/>
-        <v>455.11111111111092</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+        <f>(B4-B$16)^2</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>(C4-C$16)^2</f>
+        <v>282.2399999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <f>(D4-D$16)^2</f>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>59</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>76</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>462.25</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="2"/>
-        <v>21.777777777777757</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="3"/>
-        <v>0.44444444444445075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+        <f>(B5-B$16)^2</f>
+        <v>121</v>
+      </c>
+      <c r="H5" s="1">
+        <f>(C5-C$16)^2</f>
+        <v>17.640000000000025</v>
+      </c>
+      <c r="I5" s="1">
+        <f>(D5-D$16)^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <f>(B6-B$16)^2</f>
+        <v>121</v>
+      </c>
+      <c r="H6" s="1">
+        <f>(C6-C$16)^2</f>
+        <v>3994.2400000000002</v>
+      </c>
+      <c r="I6" s="1">
+        <f>(D6-D$16)^2</f>
+        <v>5776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>79</v>
+      </c>
+      <c r="D7" s="8">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <f>(B7-B$16)^2</f>
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <f>(C7-C$16)^2</f>
+        <v>249.6399999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <f>(D7-D$16)^2</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="5">
         <v>74</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C13" s="5">
         <v>66</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D13" s="6">
         <v>80</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>2756.25</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.4444444444444553</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="3"/>
-        <v>11.111111111111079</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>79</v>
-      </c>
-      <c r="D7" s="1">
-        <v>63</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>210.25</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="2"/>
-        <v>235.11111111111117</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>186.77777777777791</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1">
         <f>AVERAGE(B2:B7)</f>
-        <v>21.5</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:G16" si="4">AVERAGE(C2:C7)</f>
-        <v>63.666666666666664</v>
+        <f t="shared" ref="C16:E16" si="0">AVERAGE(C2:C7)</f>
+        <v>63.2</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="4"/>
-        <v>76.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="4"/>
-        <v>602.91666666666663</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="4"/>
-        <v>522.88888888888891</v>
+        <f t="shared" si="0"/>
+        <v>67.166666666666671</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="4"/>
-        <v>231.88888888888883</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
+        <f>AVERAGE(G2:G7)</f>
+        <v>71.833333333333329</v>
+      </c>
+      <c r="H16" s="1">
+        <f>AVERAGE(H2:H7)</f>
+        <v>1187.5066666666667</v>
+      </c>
+      <c r="I16" s="1">
+        <f>AVERAGE(I2:I7)</f>
+        <v>1192.3333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1">
+        <f>_xlfn.STDEV.S(B2:B7)</f>
+        <v>8.8034084308295046</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:E17" si="1">_xlfn.STDEV.S(C2:C7)</f>
+        <v>27.976776083030007</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>18.560711193270585</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>15.664184200483165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1">
-        <f>STDEV(B2:B7)</f>
-        <v>26.89795531262553</v>
-      </c>
-      <c r="C17" s="1">
-        <f>STDEV(C2:C7)</f>
-        <v>25.049284753594591</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" ref="C17:D17" si="5">STDEV(D2:D7)</f>
-        <v>16.681326885672711</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
+      <c r="G18" s="1">
+        <f>SQRT(G16)</f>
+        <v>8.4754547567274123</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ref="H18:I18" si="2">SQRT(H16)</f>
+        <v>34.460218610256476</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>34.530180036213729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="1">
-        <f>SQRT(E16)</f>
-        <v>24.55436145915154</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" ref="F18:G18" si="6">SQRT(F16)</f>
-        <v>22.866763848189994</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="6"/>
-        <v>15.227898374000558</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B19" s="1">
         <f>_xlfn.STDEV.S(B2:B8)/SQRT($B$15)</f>
-        <v>10.981044273352756</v>
+        <v>3.9370039370059056</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:D19" si="7">_xlfn.STDEV.S(C2:C8)/SQRT($B$15)</f>
-        <v>10.226327677997501</v>
+        <f t="shared" ref="C19:D19" si="3">_xlfn.STDEV.S(C2:C8)/SQRT($B$15)</f>
+        <v>12.511594622589078</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="7"/>
-        <v>6.8101231837447607</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>8.3006023877788522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75">
+      <c r="B23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75">
+      <c r="B24" s="14">
+        <v>13</v>
+      </c>
+      <c r="C24" s="14">
+        <v>2</v>
+      </c>
+      <c r="D24" s="14">
+        <v>172</v>
+      </c>
+      <c r="E24" s="14">
+        <v>86</v>
+      </c>
+      <c r="F24" s="14">
+        <v>32</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75">
+      <c r="B25" s="14">
+        <v>11</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2</v>
+      </c>
+      <c r="D25" s="14">
+        <v>178</v>
+      </c>
+      <c r="E25" s="14">
+        <v>89</v>
+      </c>
+      <c r="F25" s="14">
+        <v>162</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75">
+      <c r="B26" s="14">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14">
+        <v>135</v>
+      </c>
+      <c r="E26" s="14">
+        <v>67.5</v>
+      </c>
+      <c r="F26" s="14">
+        <v>144.5</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.75">
+      <c r="B27" s="14">
+        <v>74</v>
+      </c>
+      <c r="C27" s="14">
+        <v>2</v>
+      </c>
+      <c r="D27" s="14">
+        <v>146</v>
+      </c>
+      <c r="E27" s="14">
+        <v>73</v>
+      </c>
+      <c r="F27" s="14">
+        <v>98</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75">
+      <c r="B28" s="14">
+        <v>7</v>
+      </c>
+      <c r="C28" s="14">
+        <v>2</v>
+      </c>
+      <c r="D28" s="14">
+        <v>142</v>
+      </c>
+      <c r="E28" s="14">
+        <v>71</v>
+      </c>
+      <c r="F28" s="14">
+        <v>128</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.75">
+      <c r="B30" s="14">
+        <v>16</v>
+      </c>
+      <c r="C30" s="14">
+        <v>5</v>
+      </c>
+      <c r="D30" s="14">
+        <v>366</v>
+      </c>
+      <c r="E30" s="14">
+        <v>73.2</v>
+      </c>
+      <c r="F30" s="14">
+        <v>102.69999999999982</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B31" s="15">
+        <v>53</v>
+      </c>
+      <c r="C31" s="15">
+        <v>5</v>
+      </c>
+      <c r="D31" s="15">
+        <v>407</v>
+      </c>
+      <c r="E31" s="15">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F31" s="15">
+        <v>179.79999999999927</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" ht="18.75">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" ht="18.75">
+      <c r="B35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="18.75">
+      <c r="B36" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="14">
+        <v>733.60000000000014</v>
+      </c>
+      <c r="D36" s="14">
+        <v>4</v>
+      </c>
+      <c r="E36" s="14">
+        <v>183.40000000000003</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1.8506559031281544</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0.28283773804505785</v>
+      </c>
+      <c r="H36" s="14">
+        <v>6.38823290869587</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="18.75">
+      <c r="B37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="14">
+        <v>168.10000000000014</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14">
+        <v>168.10000000000014</v>
+      </c>
+      <c r="F37" s="14">
+        <v>1.6962663975782057</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0.26270432942805116</v>
+      </c>
+      <c r="H37" s="14">
+        <v>7.708647422176786</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="18.75">
+      <c r="B38" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="14">
+        <v>396.39999999999986</v>
+      </c>
+      <c r="D38" s="14">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14">
+        <v>99.099999999999966</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="2:8" ht="18.75">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B40" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1298.1000000000001</v>
+      </c>
+      <c r="D40" s="15">
+        <v>9</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="44" spans="2:8" ht="18.75">
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="2:8" ht="18.75">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="2:8" ht="18.75">
+      <c r="B47" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="2:8" ht="18.75">
+      <c r="B48" s="14">
+        <v>24</v>
+      </c>
+      <c r="C48" s="14">
+        <v>5</v>
+      </c>
+      <c r="D48" s="14">
+        <v>105</v>
+      </c>
+      <c r="E48" s="14">
+        <v>21</v>
+      </c>
+      <c r="F48" s="14">
+        <v>902.5</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="2:8" ht="18.75">
+      <c r="B49" s="14">
+        <v>16</v>
+      </c>
+      <c r="C49" s="14">
+        <v>5</v>
+      </c>
+      <c r="D49" s="14">
+        <v>366</v>
+      </c>
+      <c r="E49" s="14">
+        <v>73.2</v>
+      </c>
+      <c r="F49" s="14">
+        <v>102.69999999999982</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B50" s="15">
+        <v>53</v>
+      </c>
+      <c r="C50" s="15">
+        <v>5</v>
+      </c>
+      <c r="D50" s="15">
+        <v>407</v>
+      </c>
+      <c r="E50" s="15">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F50" s="15">
+        <v>179.79999999999927</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="2:8" ht="18.75">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="2:8" ht="18.75">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="2:8" ht="18.75">
+      <c r="B54" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="18.75">
+      <c r="B55" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="14">
+        <v>10733.733333333332</v>
+      </c>
+      <c r="D55" s="14">
+        <v>2</v>
+      </c>
+      <c r="E55" s="14">
+        <v>5366.8666666666659</v>
+      </c>
+      <c r="F55" s="14">
+        <v>13.58700421940928</v>
+      </c>
+      <c r="G55" s="14">
+        <v>8.2622703421957142E-4</v>
+      </c>
+      <c r="H55" s="14">
+        <v>3.8852938346523942</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="18.75">
+      <c r="B56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="14">
+        <v>4740</v>
+      </c>
+      <c r="D56" s="14">
+        <v>12</v>
+      </c>
+      <c r="E56" s="14">
+        <v>395</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="2:8" ht="18.75">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B58" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="15">
+        <v>15473.733333333332</v>
+      </c>
+      <c r="D58" s="15">
+        <v>14</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikeiy\source\repos\VRSJ2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7768D25B-A935-4D88-AF43-C60663F45C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC10F0DA-ADEB-4240-9718-4BB4614B3F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,13 +539,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -554,9 +553,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -743,7 +741,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -1416,22 +1414,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>491673</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60890</xdr:rowOff>
+      <xdr:colOff>491674</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552827</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523643</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>173641</xdr:rowOff>
+      <xdr:rowOff>173642</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="グループ化 16">
+        <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57CA656-4E78-3DC0-7D4C-E87C7B5204BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947B4080-1805-9AA5-092F-06DD032F80FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,10 +1437,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9307332" y="3889475"/>
-          <a:ext cx="2799397" cy="2956312"/>
-          <a:chOff x="8468179" y="4062477"/>
-          <a:chExt cx="2795169" cy="2573156"/>
+          <a:off x="9307226" y="4537925"/>
+          <a:ext cx="3472902" cy="2296648"/>
+          <a:chOff x="9307333" y="4544974"/>
+          <a:chExt cx="3454773" cy="2300814"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -1459,8 +1457,8 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="8468179" y="4779283"/>
-          <a:ext cx="2511424" cy="1823596"/>
+          <a:off x="9307333" y="4719937"/>
+          <a:ext cx="2515223" cy="2088342"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1481,8 +1479,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8745202" y="6066888"/>
-            <a:ext cx="914400" cy="568745"/>
+            <a:off x="9587950" y="6197649"/>
+            <a:ext cx="915783" cy="648139"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1537,8 +1535,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000" flipH="1">
-            <a:off x="9810152" y="4393827"/>
-            <a:ext cx="98677" cy="1300866"/>
+            <a:off x="10645836" y="4370378"/>
+            <a:ext cx="113003" cy="1306009"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
@@ -1579,8 +1577,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10052723" y="5093599"/>
-            <a:ext cx="914400" cy="570471"/>
+            <a:off x="10897449" y="5079885"/>
+            <a:ext cx="915783" cy="656466"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1617,10 +1615,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <xdr:cNvPr id="18" name="テキスト ボックス 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06103729-33E2-25DA-1230-F4991918783C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2180600-45CF-0DB0-018A-831F0F9AD04D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1628,8 +1626,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10236916" y="4237337"/>
-            <a:ext cx="1026432" cy="275771"/>
+            <a:off x="11621564" y="4673701"/>
+            <a:ext cx="1140542" cy="601679"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1659,70 +1657,59 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>**p &lt; 0.01</a:t>
+              <a:t>**: p &lt; 0.01</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
           </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="テキスト ボックス 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2180600-45CF-0DB0-018A-831F0F9AD04D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10212765" y="4062477"/>
-            <a:ext cx="1026432" cy="275771"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>**p &lt; 0.01</a:t>
+              <a:t>*:</a:t>
             </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>p &lt; 0.05</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1740,8 +1727,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9727965" y="4464735"/>
-            <a:ext cx="401929" cy="275771"/>
+            <a:off x="10562830" y="4544974"/>
+            <a:ext cx="402537" cy="318982"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1796,17 +1783,15 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9394558" y="5218159"/>
-            <a:ext cx="914400" cy="570471"/>
+            <a:off x="10238288" y="5222528"/>
+            <a:ext cx="912608" cy="653291"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -1850,8 +1835,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000" flipH="1" flipV="1">
-            <a:off x="9102716" y="5317846"/>
-            <a:ext cx="848729" cy="649356"/>
+            <a:off x="9883450" y="5384920"/>
+            <a:ext cx="975121" cy="650338"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
@@ -1892,8 +1877,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8751857" y="4994922"/>
-            <a:ext cx="914400" cy="570471"/>
+            <a:off x="9591440" y="4966882"/>
+            <a:ext cx="915783" cy="653291"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1925,6 +1910,62 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="テキスト ボックス 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0CC716-4FF9-6489-0901-9D2AB411C270}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10198093" y="4799593"/>
+            <a:ext cx="308911" cy="318982"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              </a:rPr>
+              <a:t>*</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2199,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2215,16 +2256,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2244,16 +2285,16 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>24</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>16</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>53</v>
       </c>
       <c r="E2" s="1">
@@ -2263,29 +2304,29 @@
         <v>3</v>
       </c>
       <c r="G2" s="1">
-        <f>(B2-B$16)^2</f>
+        <f t="shared" ref="G2:I7" si="0">(B2-B$16)^2</f>
         <v>169</v>
       </c>
       <c r="H2" s="1">
-        <f>(C2-C$16)^2</f>
+        <f t="shared" si="0"/>
         <v>2227.84</v>
       </c>
       <c r="I2" s="1">
-        <f>(D2-D$16)^2</f>
+        <f t="shared" si="0"/>
         <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <v>82</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>90</v>
       </c>
       <c r="E3" s="1">
@@ -2295,29 +2336,29 @@
         <v>2</v>
       </c>
       <c r="G3" s="1">
-        <f>(B3-B$16)^2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H3" s="1">
-        <f>(C3-C$16)^2</f>
+        <f t="shared" si="0"/>
         <v>353.43999999999988</v>
       </c>
       <c r="I3" s="1">
-        <f>(D3-D$16)^2</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>11</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <v>80</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>98</v>
       </c>
       <c r="E4" s="1">
@@ -2327,29 +2368,29 @@
         <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f>(B4-B$16)^2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>(C4-C$16)^2</f>
+        <f t="shared" si="0"/>
         <v>282.2399999999999</v>
       </c>
       <c r="I4" s="1">
-        <f>(D4-D$16)^2</f>
+        <f t="shared" si="0"/>
         <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>59</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>76</v>
       </c>
       <c r="E5" s="1">
@@ -2359,25 +2400,23 @@
         <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f>(B5-B$16)^2</f>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="H5" s="1">
-        <f>(C5-C$16)^2</f>
+        <f t="shared" si="0"/>
         <v>17.640000000000025</v>
       </c>
       <c r="I5" s="1">
-        <f>(D5-D$16)^2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1">
         <v>64</v>
       </c>
@@ -2385,29 +2424,29 @@
         <v>3</v>
       </c>
       <c r="G6" s="1">
-        <f>(B6-B$16)^2</f>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="H6" s="1">
-        <f>(C6-C$16)^2</f>
+        <f t="shared" si="0"/>
         <v>3994.2400000000002</v>
       </c>
       <c r="I6" s="1">
-        <f>(D6-D$16)^2</f>
+        <f t="shared" si="0"/>
         <v>5776</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>79</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>63</v>
       </c>
       <c r="E7" s="1">
@@ -2417,26 +2456,26 @@
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <f>(B7-B$16)^2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H7" s="1">
-        <f>(C7-C$16)^2</f>
+        <f t="shared" si="0"/>
         <v>249.6399999999999</v>
       </c>
       <c r="I7" s="1">
-        <f>(D7-D$16)^2</f>
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="5">
+      <c r="B13" s="1">
         <v>74</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="1">
         <v>66</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>80</v>
       </c>
     </row>
@@ -2457,15 +2496,15 @@
         <v>11</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:E16" si="0">AVERAGE(C2:C7)</f>
+        <f t="shared" ref="C16:E16" si="1">AVERAGE(C2:C7)</f>
         <v>63.2</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.166666666666671</v>
       </c>
       <c r="G16" s="1">
@@ -2490,15 +2529,15 @@
         <v>8.8034084308295046</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:E17" si="1">_xlfn.STDEV.S(C2:C7)</f>
+        <f t="shared" ref="C17:E17" si="2">_xlfn.STDEV.S(C2:C7)</f>
         <v>27.976776083030007</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.560711193270585</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.664184200483165</v>
       </c>
     </row>
@@ -2511,11 +2550,11 @@
         <v>8.4754547567274123</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" ref="H18:I18" si="2">SQRT(H16)</f>
+        <f t="shared" ref="H18:I18" si="3">SQRT(H16)</f>
         <v>34.460218610256476</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.530180036213729</v>
       </c>
     </row>
@@ -2528,11 +2567,11 @@
         <v>3.9370039370059056</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:D19" si="3">_xlfn.STDEV.S(C2:C8)/SQRT($B$15)</f>
+        <f t="shared" ref="C19:D19" si="4">_xlfn.STDEV.S(C2:C8)/SQRT($B$15)</f>
         <v>12.511594622589078</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3006023877788522</v>
       </c>
     </row>
@@ -2557,161 +2596,161 @@
       <c r="H22"/>
     </row>
     <row r="23" spans="1:9" ht="18.75">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
     </row>
     <row r="24" spans="1:9" ht="18.75">
-      <c r="B24" s="14">
+      <c r="B24">
         <v>13</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24">
         <v>172</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24">
         <v>86</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24">
         <v>32</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
     </row>
     <row r="25" spans="1:9" ht="18.75">
-      <c r="B25" s="14">
+      <c r="B25">
         <v>11</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25">
         <v>178</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25">
         <v>89</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25">
         <v>162</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
     </row>
     <row r="26" spans="1:9" ht="18.75">
-      <c r="B26" s="14">
+      <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26">
         <v>135</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26">
         <v>67.5</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26">
         <v>144.5</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="18.75">
-      <c r="B27" s="14">
+      <c r="B27">
         <v>74</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27">
         <v>146</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27">
         <v>73</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27">
         <v>98</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="18.75">
-      <c r="B28" s="14">
+      <c r="B28">
         <v>7</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28">
         <v>142</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28">
         <v>71</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28">
         <v>128</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:9" ht="18.75">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
     </row>
     <row r="30" spans="1:9" ht="18.75">
-      <c r="B30" s="14">
+      <c r="B30">
         <v>16</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30">
         <v>366</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30">
         <v>73.2</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30">
         <v>102.69999999999982</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
     </row>
     <row r="31" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B31" s="15">
+      <c r="B31" s="13">
         <v>53</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <v>5</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <v>407</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="13">
         <v>81.400000000000006</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="13">
         <v>179.79999999999927</v>
       </c>
       <c r="G31"/>
@@ -2747,114 +2786,114 @@
       <c r="H34"/>
     </row>
     <row r="35" spans="2:8" ht="18.75">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="18.75">
-      <c r="B36" s="14" t="s">
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36">
         <v>733.60000000000014</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36">
         <v>4</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36">
         <v>183.40000000000003</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36">
         <v>1.8506559031281544</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36">
         <v>0.28283773804505785</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36">
         <v>6.38823290869587</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="18.75">
-      <c r="B37" s="14" t="s">
+      <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37">
         <v>168.10000000000014</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37">
         <v>168.10000000000014</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37">
         <v>1.6962663975782057</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37">
         <v>0.26270432942805116</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37">
         <v>7.708647422176786</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="18.75">
-      <c r="B38" s="14" t="s">
+      <c r="B38" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38">
         <v>396.39999999999986</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38">
         <v>99.099999999999966</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
     </row>
     <row r="39" spans="2:8" ht="18.75">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
     </row>
     <row r="40" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="13">
         <v>1298.1000000000001</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <v>9</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" t="s">
@@ -2888,76 +2927,76 @@
       <c r="H46"/>
     </row>
     <row r="47" spans="2:8" ht="18.75">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
     </row>
     <row r="48" spans="2:8" ht="18.75">
-      <c r="B48" s="14">
+      <c r="B48">
         <v>24</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48">
         <v>105</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48">
         <v>21</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48">
         <v>902.5</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
     </row>
     <row r="49" spans="2:8" ht="18.75">
-      <c r="B49" s="14">
+      <c r="B49">
         <v>16</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49">
         <v>5</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49">
         <v>366</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49">
         <v>73.2</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49">
         <v>102.69999999999982</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
     </row>
     <row r="50" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B50" s="15">
+      <c r="B50" s="13">
         <v>53</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="13">
         <v>5</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="13">
         <v>407</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="13">
         <v>81.400000000000006</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="13">
         <v>179.79999999999927</v>
       </c>
       <c r="G50"/>
@@ -2993,91 +3032,91 @@
       <c r="H53"/>
     </row>
     <row r="54" spans="2:8" ht="18.75">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="18.75">
-      <c r="B55" s="14" t="s">
+      <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55">
         <v>10733.733333333332</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55">
         <v>2</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55">
         <v>5366.8666666666659</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55">
         <v>13.58700421940928</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55">
         <v>8.2622703421957142E-4</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55">
         <v>3.8852938346523942</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="18.75">
-      <c r="B56" s="14" t="s">
+      <c r="B56" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56">
         <v>4740</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56">
         <v>12</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56">
         <v>395</v>
       </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
     </row>
     <row r="57" spans="2:8" ht="18.75">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
     </row>
     <row r="58" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="13">
         <v>15473.733333333332</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="13">
         <v>14</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikeiy\source\repos\VRSJ2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC10F0DA-ADEB-4240-9718-4BB4614B3F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1D4BF4-8C58-41B9-83F6-8B67FE44EC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1437,8 +1437,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9307226" y="4537925"/>
-          <a:ext cx="3472902" cy="2296648"/>
+          <a:off x="9306268" y="4538199"/>
+          <a:ext cx="3468113" cy="2302943"/>
           <a:chOff x="9307333" y="4544974"/>
           <a:chExt cx="3454773" cy="2300814"/>
         </a:xfrm>
@@ -1543,7 +1543,7 @@
               <a:gd name="adj1" fmla="val -196176"/>
             </a:avLst>
           </a:prstGeom>
-          <a:ln w="19050">
+          <a:ln w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1843,7 +1843,7 @@
               <a:gd name="adj1" fmla="val 123444"/>
             </a:avLst>
           </a:prstGeom>
-          <a:ln w="19050">
+          <a:ln w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -2240,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikeiy\source\repos\VRSJ2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1D4BF4-8C58-41B9-83F6-8B67FE44EC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBD2FCC-5770-4424-975C-323926E35A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -108,102 +108,6 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>中村さん</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ナカムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="BIZ UDゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>米田さん</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="BIZ UDゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>芹澤さん</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>セリザワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="BIZ UDゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>渡邊さん</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ワタナベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="BIZ UDゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>島藤さん</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>シマ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>フジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="BIZ UDゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>後藤さん</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ゴトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="BIZ UDゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>平均</t>
     </r>
     <rPh sb="0" eb="2">
@@ -244,23 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>平方偏差</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平方偏差</t>
-    <rPh sb="0" eb="4">
-      <t>ヘイホウヘンサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上昇感覚</t>
     <rPh sb="0" eb="2">
       <t>ジョウショウ</t>
@@ -287,9 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>分散分析: 繰り返しのない二元配置</t>
-  </si>
-  <si>
     <t>概要</t>
   </si>
   <si>
@@ -324,15 +208,6 @@
   </si>
   <si>
     <t>F 境界値</t>
-  </si>
-  <si>
-    <t>行</t>
-  </si>
-  <si>
-    <t>列</t>
-  </si>
-  <si>
-    <t>誤差</t>
   </si>
   <si>
     <t>分散分析: 一元配置</t>
@@ -353,12 +228,131 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>列 1</t>
+  </si>
+  <si>
+    <t>列 2</t>
+  </si>
+  <si>
+    <t>列 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="3"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="3"/>
+      </rPr>
+      <t>YY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="3"/>
+      </rPr>
+      <t>SM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="3"/>
+      </rPr>
+      <t>WK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="3"/>
+      </rPr>
+      <t>GY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +393,12 @@
       <name val="メイリオ"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -539,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,15 +548,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -614,7 +620,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$19:$D$19</c:f>
+                <c:f>Sheet1!$B$18:$D$18</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -632,7 +638,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$19:$D$19</c:f>
+                <c:f>Sheet1!$B$18:$D$18</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -678,7 +684,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$D$16</c:f>
+              <c:f>Sheet1!$B$15:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1437,8 +1443,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9306268" y="4538199"/>
-          <a:ext cx="3468113" cy="2302943"/>
+          <a:off x="9306268" y="4569949"/>
+          <a:ext cx="3468113" cy="2306912"/>
           <a:chOff x="9307333" y="4544974"/>
           <a:chExt cx="3454773" cy="2300814"/>
         </a:xfrm>
@@ -2238,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2256,37 +2262,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
+      <c r="A2" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>24</v>
@@ -2303,22 +2303,10 @@
       <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:I7" si="0">(B2-B$16)^2</f>
-        <v>169</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" si="0"/>
-        <v>2227.84</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" si="0"/>
-        <v>529</v>
-      </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
+      <c r="A3" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>13</v>
@@ -2335,22 +2323,10 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" si="0"/>
-        <v>353.43999999999988</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
+      <c r="A4" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>11</v>
@@ -2367,22 +2343,10 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>282.2399999999999</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>484</v>
-      </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
+      <c r="A5" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -2399,724 +2363,615 @@
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>17.640000000000025</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5"/>
+      <c r="A6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>63</v>
+      </c>
       <c r="E6" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>3994.2400000000002</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>5776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6">
-        <v>79</v>
-      </c>
-      <c r="D7" s="7">
-        <v>63</v>
-      </c>
-      <c r="E7" s="1">
-        <v>65</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>249.6399999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="1">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="1">
         <v>74</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C12" s="1">
         <v>66</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D12" s="5">
         <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>5</v>
+        <f>AVERAGE(B2:B6)</f>
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>63.2</v>
+      </c>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D6)</f>
+        <v>76</v>
+      </c>
+      <c r="E15" s="1">
+        <f>AVERAGE(E2:E6)</f>
+        <v>67.8</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
+      <c r="A16" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="1">
-        <f>AVERAGE(B2:B7)</f>
-        <v>11</v>
+        <f>_xlfn.STDEV.S(B2:B6)</f>
+        <v>8.8034084308295046</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:E16" si="1">AVERAGE(C2:C7)</f>
-        <v>63.2</v>
+        <f>_xlfn.STDEV.S(C2:C6)</f>
+        <v>27.976776083030007</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <f>_xlfn.STDEV.S(D2:D6)</f>
+        <v>18.560711193270585</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>67.166666666666671</v>
-      </c>
-      <c r="G16" s="1">
-        <f>AVERAGE(G2:G7)</f>
-        <v>71.833333333333329</v>
-      </c>
-      <c r="H16" s="1">
-        <f>AVERAGE(H2:H7)</f>
-        <v>1187.5066666666667</v>
-      </c>
-      <c r="I16" s="1">
-        <f>AVERAGE(I2:I7)</f>
-        <v>1192.3333333333333</v>
+        <f>_xlfn.STDEV.S(E2:E6)</f>
+        <v>17.426990560621757</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1">
-        <f>_xlfn.STDEV.S(B2:B7)</f>
-        <v>8.8034084308295046</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" ref="C17:E17" si="2">_xlfn.STDEV.S(C2:C7)</f>
-        <v>27.976776083030007</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="2"/>
-        <v>18.560711193270585</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>15.664184200483165</v>
+      <c r="A17" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1">
-        <f>SQRT(G16)</f>
-        <v>8.4754547567274123</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ref="H18:I18" si="3">SQRT(H16)</f>
-        <v>34.460218610256476</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="3"/>
-        <v>34.530180036213729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1">
-        <f>_xlfn.STDEV.S(B2:B8)/SQRT($B$15)</f>
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <f>_xlfn.STDEV.S(B2:B7)/SQRT($B$14)</f>
         <v>3.9370039370059056</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" ref="C19:D19" si="4">_xlfn.STDEV.S(C2:C8)/SQRT($B$15)</f>
+      <c r="C18" s="1">
+        <f>_xlfn.STDEV.S(C2:C7)/SQRT($B$14)</f>
         <v>12.511594622589078</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="4"/>
+      <c r="D18" s="1">
+        <f>_xlfn.STDEV.S(D2:D7)/SQRT($B$14)</f>
         <v>8.3006023877788522</v>
       </c>
     </row>
+    <row r="20" spans="1:9" ht="18.75">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
     <row r="21" spans="1:9" ht="18.75">
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.75">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="18.75">
-      <c r="B23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" ht="18.75">
-      <c r="B24">
-        <v>13</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>172</v>
-      </c>
-      <c r="E24">
-        <v>86</v>
-      </c>
-      <c r="F24">
-        <v>32</v>
-      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75">
-      <c r="B25">
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>178</v>
-      </c>
-      <c r="E25">
-        <v>89</v>
-      </c>
-      <c r="F25">
-        <v>162</v>
-      </c>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="18.75">
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>135</v>
-      </c>
-      <c r="E26">
-        <v>67.5</v>
-      </c>
-      <c r="F26">
-        <v>144.5</v>
+      <c r="B26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="18.75">
-      <c r="B27">
-        <v>74</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>146</v>
-      </c>
-      <c r="E27">
-        <v>73</v>
-      </c>
-      <c r="F27">
-        <v>98</v>
+      <c r="B27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="13">
+        <v>5</v>
+      </c>
+      <c r="D27" s="13">
+        <v>55</v>
+      </c>
+      <c r="E27" s="13">
+        <v>11</v>
+      </c>
+      <c r="F27" s="13">
+        <v>77.5</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="18.75">
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>142</v>
-      </c>
-      <c r="E28">
-        <v>71</v>
-      </c>
-      <c r="F28">
-        <v>128</v>
+      <c r="B28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="13">
+        <v>5</v>
+      </c>
+      <c r="D28" s="13">
+        <v>316</v>
+      </c>
+      <c r="E28" s="13">
+        <v>63.2</v>
+      </c>
+      <c r="F28" s="13">
+        <v>782.69999999999982</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="14">
+        <v>5</v>
+      </c>
+      <c r="D29" s="14">
+        <v>380</v>
+      </c>
+      <c r="E29" s="14">
+        <v>76</v>
+      </c>
+      <c r="F29" s="14">
+        <v>344.5</v>
+      </c>
       <c r="G29"/>
       <c r="H29"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="18.75">
-      <c r="B30">
-        <v>16</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>366</v>
-      </c>
-      <c r="E30">
-        <v>73.2</v>
-      </c>
-      <c r="F30">
-        <v>102.69999999999982</v>
-      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-    </row>
-    <row r="31" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B31" s="13">
-        <v>53</v>
-      </c>
-      <c r="C31" s="13">
-        <v>5</v>
-      </c>
-      <c r="D31" s="13">
-        <v>407</v>
-      </c>
-      <c r="E31" s="13">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="F31" s="13">
-        <v>179.79999999999927</v>
-      </c>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.75">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75">
-      <c r="B32"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-    </row>
-    <row r="33" spans="2:8" ht="18.75">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B34" t="s">
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="2:9" ht="18.75">
+      <c r="B33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="2:9" ht="18.75">
+      <c r="B34" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="2:8" ht="18.75">
-      <c r="B35" s="14" t="s">
+      <c r="C34" s="13">
+        <v>11856.133333333331</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2</v>
+      </c>
+      <c r="E34" s="13">
+        <v>5928.0666666666657</v>
+      </c>
+      <c r="F34" s="13">
+        <v>14.762347472399767</v>
+      </c>
+      <c r="G34" s="13">
+        <v>5.8243675338875013E-4</v>
+      </c>
+      <c r="H34" s="13">
+        <v>3.8852938346523942</v>
+      </c>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="2:9" ht="18.75">
+      <c r="B35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="18.75">
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36">
-        <v>733.60000000000014</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>183.40000000000003</v>
-      </c>
-      <c r="F36">
-        <v>1.8506559031281544</v>
-      </c>
-      <c r="G36">
-        <v>0.28283773804505785</v>
-      </c>
-      <c r="H36">
-        <v>6.38823290869587</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="18.75">
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37">
-        <v>168.10000000000014</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>168.10000000000014</v>
-      </c>
-      <c r="F37">
-        <v>1.6962663975782057</v>
-      </c>
-      <c r="G37">
-        <v>0.26270432942805116</v>
-      </c>
-      <c r="H37">
-        <v>7.708647422176786</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="18.75">
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38">
-        <v>396.39999999999986</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>99.099999999999966</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="2:8" ht="18.75">
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B40" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="13">
-        <v>1298.1000000000001</v>
-      </c>
-      <c r="D40" s="13">
-        <v>9</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="44" spans="2:8" ht="18.75">
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="2:8" ht="18.75">
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="2:8" ht="18.75">
-      <c r="B47" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47"/>
-      <c r="H47"/>
-    </row>
-    <row r="48" spans="2:8" ht="18.75">
-      <c r="B48">
-        <v>24</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>105</v>
-      </c>
-      <c r="E48">
-        <v>21</v>
-      </c>
-      <c r="F48">
-        <v>902.5</v>
-      </c>
-      <c r="G48"/>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="2:8" ht="18.75">
-      <c r="B49">
-        <v>16</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>366</v>
-      </c>
-      <c r="E49">
-        <v>73.2</v>
-      </c>
-      <c r="F49">
-        <v>102.69999999999982</v>
-      </c>
-      <c r="G49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B50" s="13">
-        <v>53</v>
-      </c>
-      <c r="C50" s="13">
-        <v>5</v>
-      </c>
-      <c r="D50" s="13">
-        <v>407</v>
-      </c>
-      <c r="E50" s="13">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="F50" s="13">
-        <v>179.79999999999927</v>
-      </c>
-      <c r="G50"/>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="2:8" ht="18.75">
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="2:8" ht="18.75">
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-    </row>
-    <row r="53" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-    </row>
-    <row r="54" spans="2:8" ht="18.75">
-      <c r="B54" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="18.75">
-      <c r="B55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55">
-        <v>10733.733333333332</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>5366.8666666666659</v>
-      </c>
-      <c r="F55">
-        <v>13.58700421940928</v>
-      </c>
-      <c r="G55">
-        <v>8.2622703421957142E-4</v>
-      </c>
-      <c r="H55">
-        <v>3.8852938346523942</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="18.75">
-      <c r="B56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56">
-        <v>4740</v>
-      </c>
-      <c r="D56">
+      <c r="C35" s="13">
+        <v>4818.7999999999993</v>
+      </c>
+      <c r="D35" s="13">
         <v>12</v>
       </c>
-      <c r="E56">
-        <v>395</v>
-      </c>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="2:8" ht="18.75">
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B58" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="13">
-        <v>15473.733333333332</v>
-      </c>
-      <c r="D58" s="13">
+      <c r="E35" s="13">
+        <v>401.56666666666661</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="2:9" ht="18.75">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="2:9" ht="19.5" thickBot="1">
+      <c r="B37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="14">
+        <v>16674.933333333331</v>
+      </c>
+      <c r="D37" s="14">
         <v>14</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="2:9" ht="18.75">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="2:9" ht="18.75">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="2:9" ht="18.75">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" spans="2:9" ht="18.75">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="2:9" ht="18.75">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="2:9" ht="18.75">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="2:9" ht="18.75">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="18"/>
+    </row>
+    <row r="48" spans="2:9" ht="18.75">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="2:9" ht="18.75">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="2:9" ht="18.75">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="2:9" ht="18.75">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="2:9" ht="18.75">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="2:9" ht="18.75">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="2:9" ht="18.75">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="2:9" ht="18.75">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="2:9" ht="18.75">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="2:9" ht="18.75">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
